--- a/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="56" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FeeGroupMasterData" sheetId="1" r:id="rId1"/>
@@ -767,30 +767,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1129,8 +1129,8 @@
       <c r="C2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>6</v>
+      <c r="D2" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1145,7 +1145,7 @@
         <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1218,10 +1218,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1699,9 +1699,9 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2739,10 +2739,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2914,10 +2914,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2949,30 +2949,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2993,47 +2993,6 @@
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3041,20 +3000,61 @@
         <v>7</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3078,13 +3078,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       <c r="B2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3120,13 +3120,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       <c r="B2" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3162,13 +3162,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       <c r="B2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3245,13 +3245,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       <c r="B2" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3286,13 +3286,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
       <c r="B2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3327,13 +3327,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       <c r="B2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3371,13 +3371,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       <c r="B2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3412,13 +3412,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="B2" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3452,13 +3452,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3493,24 +3493,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3533,10 +3533,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       <c r="A2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3567,10 +3567,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3602,16 +3602,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       <c r="A2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3649,10 +3649,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3829,10 +3829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="FeeGroupMasterData" sheetId="1" r:id="rId1"/>
+    <sheet name="MasterFeeGroupData" sheetId="61" r:id="rId1"/>
     <sheet name="Search_FeeGroupMasterGroup" sheetId="39" r:id="rId2"/>
     <sheet name="FeeGroupYearlyData" sheetId="2" r:id="rId3"/>
     <sheet name="Search_FeeGroupYearlyData" sheetId="40" r:id="rId4"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="175">
   <si>
     <t>Group Name</t>
   </si>
@@ -491,21 +491,9 @@
     <t>VFGABC</t>
   </si>
   <si>
-    <t>Fee Group Type</t>
-  </si>
-  <si>
     <t>Compulsory</t>
   </si>
   <si>
-    <t>prasad</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>Susdiny Fee Group Master created after removal of check box.</t>
-  </si>
-  <si>
     <t>Susdiny Fee Group Master</t>
   </si>
   <si>
@@ -597,25 +585,30 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>Vaps School Group</t>
+  </si>
+  <si>
+    <t>Fee GroupName</t>
+  </si>
+  <si>
+    <t>Fee GroupType</t>
+  </si>
+  <si>
+    <t>Creating fee group for vaps school</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -719,15 +712,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -736,10 +732,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,40 +750,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,73 +1082,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+        <v>174</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1189,7 +1155,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -1679,7 +1645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1699,7 +1665,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>6</v>
@@ -2189,7 +2155,7 @@
         <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -2292,7 +2258,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -2740,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>2</v>
@@ -2923,7 +2889,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2964,13 +2930,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>6</v>
@@ -3000,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>2</v>
@@ -3008,10 +2974,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -3041,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>2</v>
@@ -3049,10 +3015,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3079,7 +3045,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3093,7 +3059,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3121,7 +3087,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3135,7 +3101,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3163,7 +3129,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3177,7 +3143,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3246,7 +3212,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3260,7 +3226,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3287,7 +3253,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3301,7 +3267,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3328,7 +3294,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3342,7 +3308,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3372,7 +3338,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3386,7 +3352,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3413,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>92</v>
@@ -3427,7 +3393,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>6</v>
@@ -3464,7 +3430,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>59</v>
@@ -3494,7 +3460,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>7</v>
@@ -3505,10 +3471,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>6</v>
@@ -3542,7 +3508,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>6</v>
@@ -3576,7 +3542,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>6</v>
@@ -3603,10 +3569,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -3620,10 +3586,10 @@
         <v>113</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -3650,7 +3616,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>2</v>
@@ -3715,7 +3681,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -3792,19 +3758,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
@@ -3846,7 +3812,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="32" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="MasterFeeGroupData" sheetId="61" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>78</v>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="32" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="MasterFeeGroupData" sheetId="61" r:id="rId1"/>
@@ -66,13 +66,15 @@
     <sheet name="Search_FeeConc_Classwise" sheetId="58" r:id="rId57"/>
     <sheet name="Search_FeeConc_CategoryWise" sheetId="59" r:id="rId58"/>
     <sheet name="ConcessType_AndConcessionAmount" sheetId="60" r:id="rId59"/>
+    <sheet name="Search_FTOutPutGridData" sheetId="62" r:id="rId60"/>
+    <sheet name="PrintReceipt_StudentName" sheetId="63" r:id="rId61"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="186">
   <si>
     <t>Group Name</t>
   </si>
@@ -239,18 +241,12 @@
     <t>: LKG</t>
   </si>
   <si>
-    <t>: A</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
     <t>: 01-05-2014</t>
   </si>
   <si>
-    <t>2017-2018/8/2017-2018</t>
-  </si>
-  <si>
     <t>LKG</t>
   </si>
   <si>
@@ -260,9 +256,6 @@
     <t>Amount Payable</t>
   </si>
   <si>
-    <t>suresh fee head1</t>
-  </si>
-  <si>
     <t>Narration msg</t>
   </si>
   <si>
@@ -572,9 +565,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>NADI V KORAKOPPA</t>
-  </si>
-  <si>
     <t>ConcessionType</t>
   </si>
   <si>
@@ -597,18 +587,91 @@
   </si>
   <si>
     <t>Creating fee group for vaps school</t>
+  </si>
+  <si>
+    <t>New PN</t>
+  </si>
+  <si>
+    <t>New Kinder</t>
+  </si>
+  <si>
+    <t>Hrithik</t>
+  </si>
+  <si>
+    <t>: Srujana Tamada</t>
+  </si>
+  <si>
+    <t>: 1267</t>
+  </si>
+  <si>
+    <t>: 4</t>
+  </si>
+  <si>
+    <t>: 9491851964</t>
+  </si>
+  <si>
+    <t>: PN/A</t>
+  </si>
+  <si>
+    <t>: 14-04-2016</t>
+  </si>
+  <si>
+    <t>: BCS1114</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Srujana</t>
+  </si>
+  <si>
+    <t>ByStudentName</t>
+  </si>
+  <si>
+    <t>Sanjana Tamada</t>
+  </si>
+  <si>
+    <t>Baldwin CoEducation School Fee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,6 +754,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,34 +788,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,37 +823,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,10 +1188,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1111,13 +1202,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -1130,16 +1221,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1154,13 +1245,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>144</v>
+      <c r="A2" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1172,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1184,10 +1286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1196,6 +1298,14 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1209,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1347,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -1366,7 +1476,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1383,8 +1493,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
+      <c r="A2" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1392,7 +1502,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1401,7 +1511,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1409,10 +1519,11 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1432,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1466,38 +1577,38 @@
       <c r="G2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9844098440</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="9">
-        <v>41760</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
+      <c r="A3" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1622,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1525,20 +1636,20 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5500</v>
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1547,7 +1658,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1560,16 +1671,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1577,16 +1688,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1613,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1621,7 +1732,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -1629,7 +1740,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1665,14 +1776,14 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1694,7 +1805,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1702,7 +1813,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1729,10 +1840,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1740,7 +1851,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1770,7 +1881,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1805,10 +1916,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1816,10 +1927,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1827,10 +1938,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1857,7 +1968,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1865,7 +1976,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -1873,7 +1984,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1904,38 +2015,38 @@
         <v>30</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -1952,25 +2063,25 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1978,30 +2089,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2126,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2025,7 +2136,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2033,18 +2144,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2074,36 +2185,36 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
@@ -2126,6 +2237,211 @@
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2133,32 +2449,32 @@
         <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>143</v>
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2166,237 +2482,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>96</v>
+      <c r="A2" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2406,46 +2552,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2461,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2471,11 +2582,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
-        <v>144</v>
+      <c r="A2" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -2505,16 +2616,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2522,16 +2633,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2554,27 +2665,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -2601,16 +2712,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2618,16 +2729,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2654,16 +2765,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2671,16 +2782,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2705,10 +2816,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2741,16 +2852,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2758,16 +2869,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2795,16 +2906,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2812,16 +2923,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2847,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2855,7 +2966,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2880,16 +2991,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>144</v>
+      <c r="A2" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2915,30 +3026,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="A2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2959,47 +3070,6 @@
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3007,20 +3077,61 @@
         <v>7</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3044,24 +3155,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3086,24 +3197,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3128,24 +3239,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3211,24 +3322,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3252,24 +3363,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3293,24 +3404,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3337,24 +3448,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3378,24 +3489,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3409,7 +3520,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3418,22 +3529,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>144</v>
+      <c r="A2" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -3450,33 +3561,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3490,7 +3602,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3499,18 +3611,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3524,7 +3636,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3533,18 +3645,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3558,7 +3670,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3568,28 +3680,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>170</v>
+      <c r="A2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -3615,10 +3727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3636,6 +3748,82 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
@@ -3672,7 +3860,7 @@
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3681,12 +3869,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3704,7 +3892,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3758,20 +3946,20 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3795,10 +3983,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3812,7 +4000,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/FeeModueData.xlsx
@@ -4,77 +4,78 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="MasterFeeGroupData" sheetId="61" r:id="rId1"/>
-    <sheet name="Search_FeeGroupMasterGroup" sheetId="39" r:id="rId2"/>
-    <sheet name="FeeGroupYearlyData" sheetId="2" r:id="rId3"/>
-    <sheet name="Search_FeeGroupYearlyData" sheetId="40" r:id="rId4"/>
-    <sheet name="FeeHeadData" sheetId="3" r:id="rId5"/>
-    <sheet name="Search_FeeHeadData" sheetId="41" r:id="rId6"/>
-    <sheet name="FeeMasterInstallmentData" sheetId="4" r:id="rId7"/>
-    <sheet name="FeeMasterInstallmentName" sheetId="5" r:id="rId8"/>
-    <sheet name="Search_MasterInstallmentName" sheetId="42" r:id="rId9"/>
-    <sheet name="InstallmentDueDateData" sheetId="6" r:id="rId10"/>
-    <sheet name="Search_DueDatFeeInstallmentName" sheetId="43" r:id="rId11"/>
-    <sheet name="YearlyGrHeadMap" sheetId="7" r:id="rId12"/>
-    <sheet name="YGHMFeeHeadInstallment" sheetId="8" r:id="rId13"/>
-    <sheet name="FeeLoginPreviledge" sheetId="9" r:id="rId14"/>
-    <sheet name="FeeTransactionStuName" sheetId="11" r:id="rId15"/>
-    <sheet name="FTransStudentInfoData" sheetId="12" r:id="rId16"/>
-    <sheet name="FeeTransFeeHeadAmont" sheetId="13" r:id="rId17"/>
-    <sheet name="BankDetailsData" sheetId="14" r:id="rId18"/>
-    <sheet name="FeeTermMasterData" sheetId="15" r:id="rId19"/>
-    <sheet name="FeeTermMasterEditData" sheetId="16" r:id="rId20"/>
-    <sheet name="FeesTermFeesHeadData" sheetId="17" r:id="rId21"/>
-    <sheet name="FeeHeadForFeeTermData" sheetId="18" r:id="rId22"/>
-    <sheet name="FeeCategoryNameCodeData" sheetId="19" r:id="rId23"/>
-    <sheet name="SearchByCCategoryName" sheetId="20" r:id="rId24"/>
-    <sheet name="YearlyClassCategoryData" sheetId="21" r:id="rId25"/>
-    <sheet name="CustomFeeGroupData" sheetId="22" r:id="rId26"/>
-    <sheet name="CreatedCustomNameData" sheetId="23" r:id="rId27"/>
-    <sheet name="FeeItReceiptData" sheetId="24" r:id="rId28"/>
-    <sheet name="CustomSPlFeeHeadData" sheetId="25" r:id="rId29"/>
-    <sheet name="Search_CustomSplFeeHead" sheetId="26" r:id="rId30"/>
-    <sheet name="MasterFineSlabBetweenData" sheetId="27" r:id="rId31"/>
-    <sheet name="MasterFineSlabGreater&amp;LThanData" sheetId="28" r:id="rId32"/>
-    <sheet name="ToDAYFineSlab" sheetId="29" r:id="rId33"/>
-    <sheet name="FromDAYFineSlab" sheetId="30" r:id="rId34"/>
-    <sheet name="FeeAmountEntryData" sheetId="31" r:id="rId35"/>
-    <sheet name="InstallmentIData" sheetId="32" r:id="rId36"/>
-    <sheet name="FeeSlabPopUpDetails" sheetId="33" r:id="rId37"/>
-    <sheet name="InstallmentIIData" sheetId="34" r:id="rId38"/>
-    <sheet name="InstallmentIIIData" sheetId="35" r:id="rId39"/>
-    <sheet name="InstallmentIVData" sheetId="36" r:id="rId40"/>
-    <sheet name="InstallmentVData" sheetId="37" r:id="rId41"/>
-    <sheet name="SearchAndDeleteTestData" sheetId="38" r:id="rId42"/>
-    <sheet name="StudentFeeGrMap_wOutCLassWise" sheetId="44" r:id="rId43"/>
-    <sheet name="StudentFeeGrMap_withCLassWise" sheetId="45" r:id="rId44"/>
-    <sheet name="StudentFeeGrMap_FCCategory" sheetId="46" r:id="rId45"/>
-    <sheet name="StudentFeeGrMap_AdmCategory" sheetId="47" r:id="rId46"/>
-    <sheet name="SFGMap_wOutCLassWiseAll" sheetId="48" r:id="rId47"/>
-    <sheet name="SFGMap_withCLassWise_All" sheetId="49" r:id="rId48"/>
-    <sheet name="Search_SFGMap_FCCategory" sheetId="50" r:id="rId49"/>
-    <sheet name="Search_SFGMap_AdmCategory" sheetId="51" r:id="rId50"/>
-    <sheet name="SFGMap_RegStudent_woutClassWise" sheetId="52" r:id="rId51"/>
-    <sheet name="SFGMap_RegStudent_withClassWise" sheetId="53" r:id="rId52"/>
-    <sheet name="SFGMap_NewStudent_woutClassWise" sheetId="54" r:id="rId53"/>
-    <sheet name="SFGMap_NewStudent_withClassWise" sheetId="55" r:id="rId54"/>
-    <sheet name="FeeMasterConcession_ClassWise" sheetId="56" r:id="rId55"/>
-    <sheet name="FeeMasterConcession_CategoryWis" sheetId="57" r:id="rId56"/>
-    <sheet name="Search_FeeConc_Classwise" sheetId="58" r:id="rId57"/>
-    <sheet name="Search_FeeConc_CategoryWise" sheetId="59" r:id="rId58"/>
-    <sheet name="ConcessType_AndConcessionAmount" sheetId="60" r:id="rId59"/>
-    <sheet name="Search_FTOutPutGridData" sheetId="62" r:id="rId60"/>
-    <sheet name="PrintReceipt_StudentName" sheetId="63" r:id="rId61"/>
+    <sheet name="FeeGroupYearlyData" sheetId="2" r:id="rId1"/>
+    <sheet name="Search_FeeGroupYearlyData" sheetId="40" r:id="rId2"/>
+    <sheet name="FeeHeadData" sheetId="3" r:id="rId3"/>
+    <sheet name="Search_FeeHeadData" sheetId="41" r:id="rId4"/>
+    <sheet name="FeeMasterInstallmentData" sheetId="4" r:id="rId5"/>
+    <sheet name="FeeMasterInstallmentName" sheetId="5" r:id="rId6"/>
+    <sheet name="Search_MasterInstallmentName" sheetId="42" r:id="rId7"/>
+    <sheet name="InstallmentDueDateData" sheetId="6" r:id="rId8"/>
+    <sheet name="Search_DueDatFeeInstallmentName" sheetId="43" r:id="rId9"/>
+    <sheet name="YearlyGrHeadMap" sheetId="7" r:id="rId10"/>
+    <sheet name="YGHMFeeHeadInstallment" sheetId="8" r:id="rId11"/>
+    <sheet name="FeeTransactionStuName" sheetId="11" r:id="rId12"/>
+    <sheet name="FTransStudentInfoData" sheetId="12" r:id="rId13"/>
+    <sheet name="FeeTransFeeHeadAmont" sheetId="13" r:id="rId14"/>
+    <sheet name="BankDetailsData" sheetId="14" r:id="rId15"/>
+    <sheet name="FeeTermMasterData" sheetId="15" r:id="rId16"/>
+    <sheet name="FeeTermMasterEditData" sheetId="16" r:id="rId17"/>
+    <sheet name="FeesTermFeesHeadData" sheetId="17" r:id="rId18"/>
+    <sheet name="FeeHeadForFeeTermData" sheetId="18" r:id="rId19"/>
+    <sheet name="FeeCategoryNameCodeData" sheetId="19" r:id="rId20"/>
+    <sheet name="SearchByCCategoryName" sheetId="20" r:id="rId21"/>
+    <sheet name="YearlyClassCategoryData" sheetId="21" r:id="rId22"/>
+    <sheet name="CustomFeeGroupData" sheetId="22" r:id="rId23"/>
+    <sheet name="CreatedCustomNameData" sheetId="23" r:id="rId24"/>
+    <sheet name="FeeItReceiptData" sheetId="24" r:id="rId25"/>
+    <sheet name="CustomSPlFeeHeadData" sheetId="25" r:id="rId26"/>
+    <sheet name="Search_CustomSplFeeHead" sheetId="26" r:id="rId27"/>
+    <sheet name="MasterFineSlabBetweenData" sheetId="27" r:id="rId28"/>
+    <sheet name="MasterFineSlabGreater&amp;LThanData" sheetId="28" r:id="rId29"/>
+    <sheet name="ToDAYFineSlab" sheetId="29" r:id="rId30"/>
+    <sheet name="FromDAYFineSlab" sheetId="30" r:id="rId31"/>
+    <sheet name="FeeAmountEntryData" sheetId="31" r:id="rId32"/>
+    <sheet name="InstallmentIData" sheetId="32" r:id="rId33"/>
+    <sheet name="FeeSlabPopUpDetails" sheetId="33" r:id="rId34"/>
+    <sheet name="InstallmentIIData" sheetId="34" r:id="rId35"/>
+    <sheet name="InstallmentIIIData" sheetId="35" r:id="rId36"/>
+    <sheet name="InstallmentIVData" sheetId="36" r:id="rId37"/>
+    <sheet name="InstallmentVData" sheetId="37" r:id="rId38"/>
+    <sheet name="SearchAndDeleteTestData" sheetId="38" r:id="rId39"/>
+    <sheet name="StudentFeeGrMap_wOutCLassWise" sheetId="44" r:id="rId40"/>
+    <sheet name="StudentFeeGrMap_withCLassWise" sheetId="45" r:id="rId41"/>
+    <sheet name="StudentFeeGrMap_FCCategory" sheetId="46" r:id="rId42"/>
+    <sheet name="StudentFeeGrMap_AdmCategory" sheetId="47" r:id="rId43"/>
+    <sheet name="SFGMap_wOutCLassWiseAll" sheetId="48" r:id="rId44"/>
+    <sheet name="SFGMap_withCLassWise_All" sheetId="49" r:id="rId45"/>
+    <sheet name="Search_SFGMap_FCCategory" sheetId="50" r:id="rId46"/>
+    <sheet name="Search_SFGMap_AdmCategory" sheetId="51" r:id="rId47"/>
+    <sheet name="SFGMap_RegStudent_woutClassWise" sheetId="52" r:id="rId48"/>
+    <sheet name="SFGMap_RegStudent_withClassWise" sheetId="53" r:id="rId49"/>
+    <sheet name="SFGMap_NewStudent_woutClassWise" sheetId="54" r:id="rId50"/>
+    <sheet name="SFGMap_NewStudent_withClassWise" sheetId="55" r:id="rId51"/>
+    <sheet name="FeeMasterConcession_ClassWise" sheetId="56" r:id="rId52"/>
+    <sheet name="FeeMasterConcession_CategoryWis" sheetId="57" r:id="rId53"/>
+    <sheet name="Search_FeeConc_Classwise" sheetId="58" r:id="rId54"/>
+    <sheet name="Search_FeeConc_CategoryWise" sheetId="59" r:id="rId55"/>
+    <sheet name="ConcessType_AndConcessionAmount" sheetId="60" r:id="rId56"/>
+    <sheet name="Search_FTOutPutGridData" sheetId="62" r:id="rId57"/>
+    <sheet name="PrintReceipt_StudentName" sheetId="63" r:id="rId58"/>
+    <sheet name="MasterGroupInputData" sheetId="64" r:id="rId59"/>
+    <sheet name="Search_FeeMastergroup" sheetId="65" r:id="rId60"/>
+    <sheet name="FeeLoginPreviledge" sheetId="9" r:id="rId61"/>
+    <sheet name="Search_FeeLoginPreviledge" sheetId="66" r:id="rId62"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="201">
   <si>
     <t>Group Name</t>
   </si>
@@ -373,12 +374,6 @@
     <t>Between</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Greater Than</t>
   </si>
   <si>
@@ -394,15 +389,9 @@
     <t>FineSlab ToDay</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>FineSlab From day</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>Installment</t>
   </si>
   <si>
@@ -469,15 +458,9 @@
     <t>Installment Name</t>
   </si>
   <si>
-    <t>Susdiny School Fee Term Edit</t>
-  </si>
-  <si>
     <t>Susdiny Duplicate Fee Head</t>
   </si>
   <si>
-    <t>KR Group</t>
-  </si>
-  <si>
     <t>Vaps Fee Group ABC</t>
   </si>
   <si>
@@ -487,9 +470,6 @@
     <t>Compulsory</t>
   </si>
   <si>
-    <t>Susdiny Fee Group Master</t>
-  </si>
-  <si>
     <t>Yearly Fee Group</t>
   </si>
   <si>
@@ -526,42 +506,21 @@
     <t>Fee Class Category</t>
   </si>
   <si>
-    <t>Nursery</t>
-  </si>
-  <si>
     <t>Admission Category</t>
   </si>
   <si>
-    <t>Kinder Garden</t>
-  </si>
-  <si>
     <t>SearchFor</t>
   </si>
   <si>
     <t>ARJUN R ARADHYA</t>
   </si>
   <si>
-    <t>ADITHYA A ATMA</t>
-  </si>
-  <si>
-    <t>AADYA S DARSHAN</t>
-  </si>
-  <si>
     <t>KANISHKA RAM A</t>
   </si>
   <si>
-    <t>AISHWARYA KRATHU P</t>
-  </si>
-  <si>
     <t>SIYON LESTER DSOUZA</t>
   </si>
   <si>
-    <t>KANISHKA RAM A</t>
-  </si>
-  <si>
-    <t>SAANVI SHENOY</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -577,27 +536,12 @@
     <t>500</t>
   </si>
   <si>
-    <t>Vaps School Group</t>
-  </si>
-  <si>
-    <t>Fee GroupName</t>
-  </si>
-  <si>
-    <t>Fee GroupType</t>
-  </si>
-  <si>
-    <t>Creating fee group for vaps school</t>
-  </si>
-  <si>
     <t>New PN</t>
   </si>
   <si>
     <t>New Kinder</t>
   </si>
   <si>
-    <t>Hrithik</t>
-  </si>
-  <si>
     <t>: Srujana Tamada</t>
   </si>
   <si>
@@ -632,13 +576,115 @@
   </si>
   <si>
     <t>Baldwin CoEducation School Fee</t>
+  </si>
+  <si>
+    <t>Fee Head Master</t>
+  </si>
+  <si>
+    <t>Vaps Special Fee Head</t>
+  </si>
+  <si>
+    <t>FeeGroup Type</t>
+  </si>
+  <si>
+    <t>Susdiny Devlopmenmt Group</t>
+  </si>
+  <si>
+    <t>Fee Master Group Created</t>
+  </si>
+  <si>
+    <t>Fee Group Name</t>
+  </si>
+  <si>
+    <t>Fee InstallmentName</t>
+  </si>
+  <si>
+    <t>Non Functional Testing</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>STD 1 To 4</t>
+  </si>
+  <si>
+    <t>Kinder Gardens</t>
+  </si>
+  <si>
+    <t>AMOGH K KOUNDINYA</t>
+  </si>
+  <si>
+    <t>A SOMESH</t>
+  </si>
+  <si>
+    <t>RAKESH</t>
+  </si>
+  <si>
+    <t>Vishnu Kiran</t>
+  </si>
+  <si>
+    <t>AdmissionNum</t>
+  </si>
+  <si>
+    <t>2017-015</t>
+  </si>
+  <si>
+    <t>2017-002</t>
+  </si>
+  <si>
+    <t>2014N-134</t>
+  </si>
+  <si>
+    <t>AADYA S DARSHAN</t>
+  </si>
+  <si>
+    <t>2017-137</t>
+  </si>
+  <si>
+    <t>2017-017</t>
+  </si>
+  <si>
+    <t>7979646</t>
+  </si>
+  <si>
+    <t>Dinesh Tamada</t>
+  </si>
+  <si>
+    <t>2017-028</t>
+  </si>
+  <si>
+    <t>Sanjana Tamada</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>Srujana Tamada</t>
+  </si>
+  <si>
+    <t>Susdiny Jio</t>
+  </si>
+  <si>
+    <t>Baldwin Girls School Fee</t>
+  </si>
+  <si>
+    <t>KAVANA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,11 +749,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,7 +801,7 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -731,7 +812,7 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -767,6 +848,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -788,27 +893,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -823,34 +928,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -859,16 +993,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1173,64 +1324,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1238,31 +1341,42 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>141</v>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>141</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1272,54 +1386,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1409,94 +1480,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1506,7 +1533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1548,8 +1575,8 @@
       <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>181</v>
+      <c r="H1" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -1583,31 +1610,31 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="A3" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="G3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1617,7 +1644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1640,10 +1667,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1653,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1709,12 +1736,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1735,7 +1762,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1743,7 +1770,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1752,45 +1779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1813,7 +1802,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1824,21 +1813,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1846,27 +1836,33 @@
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1900,7 +1896,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1953,7 +1991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1995,12 +2033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2040,13 +2078,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -2058,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2095,7 +2133,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -2103,13 +2141,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -2121,7 +2159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2152,7 +2190,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -2163,7 +2201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2225,12 +2263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2257,85 +2295,44 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2361,18 +2358,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>140</v>
+      <c r="A4" s="30" t="s">
+        <v>168</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2381,12 +2378,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2415,10 +2412,10 @@
         <v>98</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -2429,12 +2426,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2457,24 +2454,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2482,12 +2479,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2498,7 +2537,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2506,7 +2545,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2517,12 +2556,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2533,7 +2572,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2541,7 +2580,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2552,7 +2591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2583,7 +2622,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>75</v>
@@ -2600,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2616,16 +2655,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2633,16 +2672,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2653,7 +2692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2665,13 +2704,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2679,13 +2718,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -2696,7 +2735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2712,16 +2751,122 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2732,13 +2877,13 @@
         <v>122</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2749,32 +2894,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2785,13 +2931,13 @@
         <v>124</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2802,30 +2948,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -2833,174 +3013,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -3012,7 +3052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3026,30 +3066,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3058,12 +3098,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3073,22 +3113,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>180</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>6</v>
@@ -3099,69 +3180,747 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3169,10 +3928,10 @@
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3182,712 +3941,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3946,19 +4082,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
@@ -3969,7 +4105,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3983,10 +4250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4000,7 +4267,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -4010,4 +4277,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>